--- a/Advertising_Campaign_US_Dates_Exercise_7.xlsx
+++ b/Advertising_Campaign_US_Dates_Exercise_7.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48329F41-45FD-4D80-BE36-9D9DBDBB4EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8BEFE2-11F7-4A68-BEC5-336C9D943EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="16440" xr2:uid="{297C08D7-44D2-4C7A-9B4E-AB7329217DB1}"/>
   </bookViews>
@@ -14,17 +14,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -237,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -258,6 +247,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +565,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,6 +637,22 @@
       <c r="D5" s="10">
         <v>45109</v>
       </c>
+      <c r="E5" s="12">
+        <f>D5-$B$1</f>
+        <v>54</v>
+      </c>
+      <c r="F5">
+        <f>NETWORKDAYS($B$1,D5, $J$5:$J$26)</f>
+        <v>37</v>
+      </c>
+      <c r="G5">
+        <f>MONTH(D5)</f>
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <f>YEAR(D5)</f>
+        <v>2023</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="9">
         <v>44928</v>
@@ -668,6 +674,22 @@
       <c r="D6" s="10">
         <v>45200</v>
       </c>
+      <c r="E6" s="12">
+        <f t="shared" ref="E6:E9" si="0">D6-$B$1</f>
+        <v>145</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F9" si="1">NETWORKDAYS($B$1,D6, $J$5:$J$26)</f>
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G9" si="2">MONTH(D6)</f>
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H9" si="3">YEAR(D6)</f>
+        <v>2023</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="9">
         <v>44942</v>
@@ -689,6 +711,22 @@
       <c r="D7" s="10">
         <v>45352</v>
       </c>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>2024</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="9">
         <v>44977</v>
@@ -710,6 +748,22 @@
       <c r="D8" s="10">
         <v>45445</v>
       </c>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>2024</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="9">
         <v>45075</v>
@@ -730,6 +784,22 @@
       </c>
       <c r="D9" s="10">
         <v>45537</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>482</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>2024</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="9">
@@ -896,6 +966,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="2aed4346-8012-4133-9837-e496d0f5c99a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EAC3B332A2FD04E918F9FD72E2B30AC" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5791f7a1e5ce60c682c7fd472657cfed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2aed4346-8012-4133-9837-e496d0f5c99a" xmlns:ns3="15179a99-4cef-4bac-ab20-a4c03d7ec5db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c4db72e02b896ab7bb9242ff846c9720" ns2:_="" ns3:_="">
     <xsd:import namespace="2aed4346-8012-4133-9837-e496d0f5c99a"/>
@@ -1112,35 +1210,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="2aed4346-8012-4133-9837-e496d0f5c99a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{351A5F2B-D8CD-4279-87CB-84E5D8D6C385}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF39B921-E783-4494-B2B9-84430F2E28A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
+    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{837DAFCD-716E-4AC4-AFB9-09682142737C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1157,23 +1246,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF39B921-E783-4494-B2B9-84430F2E28A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
-    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{351A5F2B-D8CD-4279-87CB-84E5D8D6C385}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>